--- a/medicine/Psychotrope/Venencia/Venencia.xlsx
+++ b/medicine/Psychotrope/Venencia/Venencia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une venencia (mot espagnol) est un petit récipient cylindrique attaché à une longue tige, utilisé à l'origine en Andalousie pour extraire le vin d'un tonneau.
 </t>
@@ -511,7 +523,9 @@
           <t>Histoire et utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce terme vient étymologiquement du mot espagnol avenencia signifiant accord. En effet, la venencia tire son origine des transactions d'achat ou de vente de vin se faisant auparavant dans les bodegas : lorsqu'un accord était trouvé (avenencia), un verre de vin était offert, extrait des tonneaux au moyen d'un instrument auquel a été donné le nom de venencia.
 L'utilisateur qualifié dans cette tâche est appelé venenciador ; la perfection d'une telle habileté est considérée comme un art, ainsi que la fabrication de la venencia elle-même, un métier tombé en désuétude.
@@ -543,7 +557,9 @@
           <t>Fabrication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Une venencia se compose d'un manche muni d'un crochet métallique à une extrémité et d'un récipient cylindrique de l'autre. Initialement, le manche était en os de baleine, mais il a ensuite été fait de ressorts d'acier recouverts de caoutchouc, puis de PVC. La venencia est nécessaire pour extraire le vin d'un tonneau et le transférer au verre de dégustation correctement : la forme du contenant cylindrique permet de traverser la couche de levure qui repose sur le vin, en évitant que ce voile soit mélangé avec le liquide extrait.
 </t>
